--- a/data/case1/15/cost_14.xlsx
+++ b/data/case1/15/cost_14.xlsx
@@ -58,18 +58,18 @@
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>148.73102036158249</v>
+        <v>148.71238348103088</v>
       </c>
       <c r="B1" s="0">
-        <v>4.5143785452150809</v>
+        <v>4.2556947315331994</v>
       </c>
       <c r="C1" s="0">
-        <v>0.88532289628180028</v>
+        <v>1.3318003913894327</v>
       </c>
     </row>
   </sheetData>
